--- a/analisis/analisis_princess_club_imperial.xlsx
+++ b/analisis/analisis_princess_club_imperial.xlsx
@@ -2620,6 +2620,30 @@
       <c r="A2" t="str">
         <v>DEPARTAMENTO: VENTAS</v>
       </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4771,6 +4795,30 @@
       <c r="A77" t="str">
         <v>DEPARTAMENTO: VENTAS MKT</v>
       </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -6806,6 +6854,30 @@
       <c r="A148" t="str">
         <v>DEPARTAMENTO: AZUL</v>
       </c>
+      <c r="B148" t="str">
+        <v/>
+      </c>
+      <c r="C148" t="str">
+        <v/>
+      </c>
+      <c r="D148" t="str">
+        <v/>
+      </c>
+      <c r="E148" t="str">
+        <v/>
+      </c>
+      <c r="F148" t="str">
+        <v/>
+      </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+      <c r="H148" t="str">
+        <v/>
+      </c>
+      <c r="I148" t="str">
+        <v/>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -8841,6 +8913,30 @@
       <c r="A219" t="str">
         <v>DEPARTAMENTO: MARKETING</v>
       </c>
+      <c r="B219" t="str">
+        <v/>
+      </c>
+      <c r="C219" t="str">
+        <v/>
+      </c>
+      <c r="D219" t="str">
+        <v/>
+      </c>
+      <c r="E219" t="str">
+        <v/>
+      </c>
+      <c r="F219" t="str">
+        <v/>
+      </c>
+      <c r="G219" t="str">
+        <v/>
+      </c>
+      <c r="H219" t="str">
+        <v/>
+      </c>
+      <c r="I219" t="str">
+        <v/>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -10992,6 +11088,30 @@
       <c r="A294" t="str">
         <v>DEPARTAMENTO: SERVICIO DE PISO</v>
       </c>
+      <c r="B294" t="str">
+        <v/>
+      </c>
+      <c r="C294" t="str">
+        <v/>
+      </c>
+      <c r="D294" t="str">
+        <v/>
+      </c>
+      <c r="E294" t="str">
+        <v/>
+      </c>
+      <c r="F294" t="str">
+        <v/>
+      </c>
+      <c r="G294" t="str">
+        <v/>
+      </c>
+      <c r="H294" t="str">
+        <v/>
+      </c>
+      <c r="I294" t="str">
+        <v/>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -12910,6 +13030,30 @@
     <row r="361">
       <c r="A361" t="str">
         <v>DEPARTAMENTO: CONTABILIDAD</v>
+      </c>
+      <c r="B361" t="str">
+        <v/>
+      </c>
+      <c r="C361" t="str">
+        <v/>
+      </c>
+      <c r="D361" t="str">
+        <v/>
+      </c>
+      <c r="E361" t="str">
+        <v/>
+      </c>
+      <c r="F361" t="str">
+        <v/>
+      </c>
+      <c r="G361" t="str">
+        <v/>
+      </c>
+      <c r="H361" t="str">
+        <v/>
+      </c>
+      <c r="I361" t="str">
+        <v/>
       </c>
     </row>
     <row r="362">
